--- a/analise_financeiro/Neomater/apresentação-Neomater.xlsx
+++ b/analise_financeiro/Neomater/apresentação-Neomater.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -559,12 +559,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -599,12 +599,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -639,12 +639,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -679,12 +679,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -710,7 +710,7 @@
         <v>5850</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -719,16 +719,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5850</v>
+        <v>23400</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -750,7 +750,7 @@
         <v>5237.06</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -759,16 +759,16 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10474.12</v>
+        <v>36659.42000000001</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -790,7 +790,7 @@
         <v>7157.78</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -799,16 +799,16 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7157.78</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -839,12 +839,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -879,12 +879,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -919,12 +919,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -950,7 +950,7 @@
         <v>4850</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -959,16 +959,16 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>14550</v>
+        <v>33950</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -991,12 +991,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1049,10 +1049,10 @@
         <v>300</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="L15" t="n">
-        <v>1200</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="16">
@@ -1071,12 +1071,12 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1114,17 +1114,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1154,17 +1154,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1194,17 +1194,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1274,17 +1274,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1314,17 +1314,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1350,25 +1350,25 @@
         <v>5237.06</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5237.06</v>
+        <v>20948.24</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1394,17 +1394,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1474,17 +1474,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1514,17 +1514,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1550,25 +1550,25 @@
         <v>4850</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4850</v>
+        <v>19400</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1586,17 +1586,17 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -1626,17 +1626,17 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -1649,10 +1649,10 @@
         <v>300</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
-        <v>300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="31">
@@ -1666,17 +1666,17 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Magé</t>
+          <t>Japeri</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -1719,12 +1719,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -1759,12 +1759,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -1839,12 +1839,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1910,7 +1910,7 @@
         <v>5850</v>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1919,16 +1919,16 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>23400</v>
+        <v>5850</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1950,7 +1950,7 @@
         <v>5237.06</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1959,16 +1959,16 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5237.06</v>
+        <v>15711.18</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1990,7 +1990,7 @@
         <v>7157.78</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1999,16 +1999,16 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7157.78</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2150,7 +2150,7 @@
         <v>4850</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2159,16 +2159,16 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4850</v>
+        <v>24250</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -2249,10 +2249,10 @@
         <v>300</v>
       </c>
       <c r="K45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>1200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="46">
@@ -2271,12 +2271,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -2319,12 +2319,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2510,7 +2510,7 @@
         <v>5850</v>
       </c>
       <c r="D52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2519,16 +2519,16 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>29250</v>
+        <v>5850</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2550,7 +2550,7 @@
         <v>5237.06</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2559,16 +2559,16 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>47133.54</v>
+        <v>26185.3</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2679,12 +2679,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -2750,7 +2750,7 @@
         <v>4850</v>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2759,16 +2759,16 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>14550</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -2849,10 +2849,10 @@
         <v>300</v>
       </c>
       <c r="K60" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L60" t="n">
-        <v>4200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61">
@@ -2871,12 +2871,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -2959,12 +2959,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -2999,12 +2999,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3039,12 +3039,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3079,12 +3079,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3110,7 +3110,7 @@
         <v>5850</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3119,16 +3119,16 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>23400</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3150,7 +3150,7 @@
         <v>5237.06</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3159,16 +3159,16 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>10474.12</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>7157.78</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3199,16 +3199,16 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>14315.56</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3239,12 +3239,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3270,7 +3270,7 @@
         <v>6608.86</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3279,16 +3279,16 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>13217.72</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3350,7 +3350,7 @@
         <v>4850</v>
       </c>
       <c r="D73" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3359,16 +3359,16 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>19400</v>
+        <v>38800</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -3431,12 +3431,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
@@ -3449,10 +3449,10 @@
         <v>300</v>
       </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L75" t="n">
-        <v>1200</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="76">
@@ -3471,12 +3471,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -3639,12 +3639,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -3679,12 +3679,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3750,7 +3750,7 @@
         <v>5237.06</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3759,16 +3759,16 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>10474.12</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3790,7 +3790,7 @@
         <v>7157.78</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3799,16 +3799,16 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>7157.78</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3839,12 +3839,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3919,12 +3919,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -3950,7 +3950,7 @@
         <v>4850</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3959,16 +3959,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>24250</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3991,12 +3991,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -4031,12 +4031,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -4049,10 +4049,10 @@
         <v>300</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L90" t="n">
-        <v>600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="91">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -4119,12 +4119,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4159,12 +4159,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -4239,12 +4239,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -4310,7 +4310,7 @@
         <v>5850</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4319,16 +4319,16 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>5850</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4359,12 +4359,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -4439,12 +4439,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -4519,12 +4519,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -4550,7 +4550,7 @@
         <v>4850</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4559,16 +4559,16 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>24250</v>
+        <v>38800</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4591,12 +4591,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -4631,12 +4631,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4649,10 +4649,10 @@
         <v>300</v>
       </c>
       <c r="K105" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L105" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="106">
@@ -4671,12 +4671,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2027</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/11 a 19/12</t>
+          <t>20/12 a 19/01</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
